--- a/Monografia_2025/Documentos/Cronograma.xlsx
+++ b/Monografia_2025/Documentos/Cronograma.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dflondono\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\FundamentosProgramacion\Repos\Datos\Datos_Analitica\Monografia_2025\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A18575-8DD6-4E56-A34A-FD3B783F9F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEA073-B4CD-4BA3-94AC-73870F156027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="puedes generar el excel con tod" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan de Implementacion" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Fase</t>
   </si>
@@ -120,18 +119,6 @@
     <t>Presentación de Resultados</t>
   </si>
   <si>
-    <t>Implementación en Producción</t>
-  </si>
-  <si>
-    <t>Desplegar la solución en un entorno operativo.</t>
-  </si>
-  <si>
-    <t>Monitoreo y Mantenimiento</t>
-  </si>
-  <si>
-    <t>Supervisar el rendimiento de la solución.</t>
-  </si>
-  <si>
     <t>Reuniones del equipo de trabajo paradefinir el objetivo.</t>
   </si>
   <si>
@@ -180,9 +167,6 @@
     <t>Decumentar resultados obtenidos</t>
   </si>
   <si>
-    <t>Proceso</t>
-  </si>
-  <si>
     <t>Diego Londoño, Yeny Vergara</t>
   </si>
   <si>
@@ -196,9 +180,6 @@
   </si>
   <si>
     <t>4. Modelado</t>
-  </si>
-  <si>
-    <t>6. Implementación y Monitoreo</t>
   </si>
   <si>
     <t>Ajustes</t>
@@ -208,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,13 +217,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,14 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -347,14 +318,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,10 +545,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,201 +592,209 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>49</v>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>45870</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>45915</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>45901</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>45917</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>49</v>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>45870</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>45915</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>45870</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>45915</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>49</v>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>45870</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>45915</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>49</v>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>45870</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>45915</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <v>45915</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45930</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="9">
-        <v>45930</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>49</v>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="9">
+      <c r="F9" s="6">
+        <v>45915</v>
+      </c>
+      <c r="G9" s="6">
         <v>45945</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9">
+      <c r="F10" s="6">
+        <v>45950</v>
+      </c>
+      <c r="G10" s="6">
         <v>45960</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -823,18 +802,22 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9">
+      <c r="F11" s="6">
+        <v>45950</v>
+      </c>
+      <c r="G11" s="6">
         <v>45976</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -842,18 +825,22 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9">
+      <c r="F12" s="6">
+        <v>45950</v>
+      </c>
+      <c r="G12" s="6">
         <v>45976</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -862,72 +849,94 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="6">
+        <v>45962</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45976</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>53</v>
+      <c r="A14" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="9">
-        <v>45940</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="6">
+        <v>45962</v>
+      </c>
+      <c r="G14" s="6">
         <v>45976</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="6">
+        <v>45966</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45981</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="6">
+        <v>45966</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45981</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>52</v>
+      <c r="A17" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -937,8 +946,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="9">
+      <c r="F17" s="6">
+        <v>45966</v>
+      </c>
+      <c r="G17" s="6">
         <v>45981</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -947,35 +958,41 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="9">
+      <c r="F18" s="6">
+        <v>45966</v>
+      </c>
+      <c r="G18" s="6">
         <v>45981</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="9">
-        <v>45981</v>
+      <c r="F19" s="6">
+        <v>45976</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45985</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -983,91 +1000,34 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Monografia_2025/Documentos/Cronograma.xlsx
+++ b/Monografia_2025/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Postobon\Cursos\Especializacion\FundamentosProgramacion\Repos\Datos\Datos_Analitica\Monografia_2025\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEA073-B4CD-4BA3-94AC-73870F156027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD517647-5520-4655-9337-F88252C88552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Fase</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Duración Estimada (días)</t>
-  </si>
-  <si>
     <t>Fecha de Inicio</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Notas</t>
-  </si>
-  <si>
     <t>1. Planificación y Preparación</t>
   </si>
   <si>
@@ -183,6 +177,9 @@
   </si>
   <si>
     <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -545,24 +542,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="83" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,432 +582,410 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45870</v>
+      </c>
       <c r="F2" s="6">
-        <v>45870</v>
-      </c>
-      <c r="G2" s="6">
         <v>45915</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
+        <v>45901</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45917</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6">
-        <v>45901</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45917</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45870</v>
+      </c>
       <c r="F4" s="6">
-        <v>45870</v>
-      </c>
-      <c r="G4" s="6">
         <v>45915</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45870</v>
+      </c>
       <c r="F5" s="6">
-        <v>45870</v>
-      </c>
-      <c r="G5" s="6">
         <v>45915</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45870</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45915</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6">
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6">
         <v>45870</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F7" s="6">
         <v>45915</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6">
-        <v>45870</v>
-      </c>
-      <c r="G7" s="6">
-        <v>45915</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45915</v>
+      </c>
       <c r="F8" s="6">
-        <v>45915</v>
-      </c>
-      <c r="G8" s="6">
         <v>45930</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45915</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45945</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6">
-        <v>45915</v>
-      </c>
-      <c r="G9" s="6">
-        <v>45945</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45950</v>
+      </c>
       <c r="F10" s="6">
-        <v>45950</v>
-      </c>
-      <c r="G10" s="6">
         <v>45960</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45950</v>
+      </c>
       <c r="F11" s="6">
-        <v>45950</v>
-      </c>
-      <c r="G11" s="6">
         <v>45976</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45950</v>
+      </c>
       <c r="F12" s="6">
-        <v>45950</v>
-      </c>
-      <c r="G12" s="6">
         <v>45976</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45962</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45976</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6">
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6">
         <v>45962</v>
       </c>
-      <c r="G13" s="6">
+      <c r="F14" s="6">
         <v>45976</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6">
-        <v>45962</v>
-      </c>
-      <c r="G14" s="6">
-        <v>45976</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="6">
+        <v>45966</v>
+      </c>
       <c r="F15" s="6">
-        <v>45966</v>
-      </c>
-      <c r="G15" s="6">
         <v>45981</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6">
+        <v>45966</v>
+      </c>
       <c r="F16" s="6">
+        <v>45981</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6">
         <v>45966</v>
       </c>
-      <c r="G16" s="6">
+      <c r="F17" s="6">
         <v>45981</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6">
-        <v>45966</v>
-      </c>
-      <c r="G17" s="6">
-        <v>45981</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="6">
+        <v>45966</v>
+      </c>
       <c r="F18" s="6">
-        <v>45966</v>
-      </c>
-      <c r="G18" s="6">
         <v>45981</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6">
+        <v>45976</v>
+      </c>
       <c r="F19" s="6">
-        <v>45976</v>
-      </c>
-      <c r="G19" s="6">
         <v>45985</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1019,7 +994,6 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
